--- a/Excel Files/to_merge/04.2024.xlsx
+++ b/Excel Files/to_merge/04.2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZaricJ\Documents\07 Entwicklung\Arbeit - GitLab\excel-merger\Excel Files\to_merge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8514C653-225B-43E3-8B36-0F6255B93D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99F9805-C70F-4D69-82BB-423E858F9872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31080" yWindow="4410" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4633,7 +4633,7 @@
   <dimension ref="A1:B1417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
